--- a/table_Info_Sc/КазРус.xlsx
+++ b/table_Info_Sc/КазРус.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\autoStarCombats\table_Info_Sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FABD45-0AE9-46EF-94F8-0DF62769CD7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCE4935-93B2-461A-A441-580A1638CE0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1935" windowWidth="19425" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22035" yWindow="405" windowWidth="16590" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,15 +1079,15 @@
       </c>
       <c r="B5" s="7">
         <f>PRODUCT(D5,1.7)</f>
-        <v>89794</v>
+        <v>80444</v>
       </c>
       <c r="C5" s="7">
         <f>PRODUCT(D5,1.4)</f>
-        <v>73948</v>
+        <v>66248</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="0"/>
-        <v>52820</v>
+        <v>47320</v>
       </c>
       <c r="E5" s="3">
         <v>2000</v>
@@ -1121,13 +1121,13 @@
       </c>
       <c r="O5" s="12">
         <f t="shared" si="1"/>
-        <v>27100</v>
+        <v>21600</v>
       </c>
       <c r="P5" s="15">
         <v>0</v>
       </c>
       <c r="Q5" s="15">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="R5" s="15">
         <v>0</v>
@@ -1157,15 +1157,15 @@
       </c>
       <c r="B6" s="7">
         <f>PRODUCT(D6,1.7)</f>
-        <v>79449.5</v>
+        <v>88799.5</v>
       </c>
       <c r="C6" s="7">
         <f>PRODUCT(D6,1.4)</f>
-        <v>65428.999999999993</v>
+        <v>73129</v>
       </c>
       <c r="D6" s="7">
         <f>SUM(E6:O6)</f>
-        <v>46735</v>
+        <v>52235</v>
       </c>
       <c r="E6" s="3">
         <v>2000</v>
@@ -1199,13 +1199,13 @@
       </c>
       <c r="O6" s="12">
         <f t="shared" si="1"/>
-        <v>26100</v>
+        <v>31600</v>
       </c>
       <c r="P6" s="15">
         <v>5500</v>
       </c>
       <c r="Q6" s="15">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="R6" s="15">
         <v>5500</v>
@@ -1235,15 +1235,15 @@
       </c>
       <c r="B7" s="7">
         <f>PRODUCT(D7,1.7)</f>
-        <v>72411.5</v>
+        <v>81761.5</v>
       </c>
       <c r="C7" s="7">
         <f>PRODUCT(D7,1.4)</f>
-        <v>59632.999999999993</v>
+        <v>67333</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="0"/>
-        <v>42595</v>
+        <v>48095</v>
       </c>
       <c r="E7" s="3">
         <v>2000</v>
@@ -1277,13 +1277,13 @@
       </c>
       <c r="O7" s="12">
         <f t="shared" si="1"/>
-        <v>20600</v>
+        <v>26100</v>
       </c>
       <c r="P7" s="15">
         <v>5500</v>
       </c>
       <c r="Q7" s="15">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="R7" s="15">
         <v>5500</v>
@@ -1420,11 +1420,11 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5">
         <f>SUM(D10,400)</f>
-        <v>40785</v>
+        <v>35285</v>
       </c>
       <c r="D10" s="5">
         <f>SUM(E10:O10)</f>
-        <v>40385</v>
+        <v>34885</v>
       </c>
       <c r="E10" s="5">
         <v>1500</v>
@@ -1454,13 +1454,13 @@
       </c>
       <c r="O10" s="14">
         <f>SUM(P10:X10)</f>
-        <v>27100</v>
+        <v>21600</v>
       </c>
       <c r="P10" s="15">
         <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15">
         <v>0</v>
@@ -1491,11 +1491,11 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5">
         <f>SUM(D11,400)</f>
-        <v>37655</v>
+        <v>43155</v>
       </c>
       <c r="D11" s="5">
         <f>SUM(E11:O11)</f>
-        <v>37255</v>
+        <v>42755</v>
       </c>
       <c r="E11" s="5">
         <v>1500</v>
@@ -1523,13 +1523,13 @@
       </c>
       <c r="O11" s="14">
         <f>SUM(P11:X11)</f>
-        <v>25550</v>
+        <v>31050</v>
       </c>
       <c r="P11" s="15">
         <v>5500</v>
       </c>
       <c r="Q11" s="15">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="R11" s="15">
         <v>5500</v>
@@ -1560,11 +1560,11 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5">
         <f>SUM(D12,400)</f>
-        <v>29525</v>
+        <v>35025</v>
       </c>
       <c r="D12" s="5">
         <f>SUM(E12:O12)</f>
-        <v>29125</v>
+        <v>34625</v>
       </c>
       <c r="E12" s="5">
         <v>1500</v>
@@ -1590,13 +1590,13 @@
       </c>
       <c r="O12" s="14">
         <f>SUM(P12:X12)</f>
-        <v>20600</v>
+        <v>26100</v>
       </c>
       <c r="P12" s="15">
         <v>5500</v>
       </c>
       <c r="Q12" s="15">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="R12" s="15">
         <v>5500</v>
@@ -1627,11 +1627,11 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5">
         <f>SUM(D13,400)</f>
-        <v>45845</v>
+        <v>40345</v>
       </c>
       <c r="D13" s="5">
         <f>SUM(E13:O13)</f>
-        <v>45445</v>
+        <v>39945</v>
       </c>
       <c r="E13" s="5">
         <v>1500</v>
@@ -1661,13 +1661,13 @@
       </c>
       <c r="O13" s="14">
         <f>SUM(P13:X13)</f>
-        <v>32600</v>
+        <v>27100</v>
       </c>
       <c r="P13" s="15">
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="R13" s="15">
         <v>0</v>
@@ -1698,11 +1698,11 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5">
         <f>SUM(D14)</f>
-        <v>67510</v>
+        <v>62010</v>
       </c>
       <c r="D14" s="5">
         <f>SUM(E14:O14)</f>
-        <v>67510</v>
+        <v>62010</v>
       </c>
       <c r="E14" s="5">
         <v>1000</v>
@@ -1734,13 +1734,13 @@
       </c>
       <c r="O14" s="14">
         <f>SUM(P14:X14)</f>
-        <v>61500</v>
+        <v>56000</v>
       </c>
       <c r="P14" s="15">
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="R14" s="15">
         <v>0</v>
@@ -1809,15 +1809,15 @@
       </c>
       <c r="B16">
         <f>PRODUCT(B5,1.4)</f>
-        <v>125711.59999999999</v>
+        <v>112621.59999999999</v>
       </c>
       <c r="C16">
         <f>B6</f>
-        <v>79449.5</v>
+        <v>88799.5</v>
       </c>
       <c r="D16">
         <f>PRODUCT(B7,1.4)</f>
-        <v>101376.09999999999</v>
+        <v>114466.09999999999</v>
       </c>
       <c r="E16">
         <f>B8</f>
@@ -1830,15 +1830,15 @@
       </c>
       <c r="B17">
         <f>B5</f>
-        <v>89794</v>
+        <v>80444</v>
       </c>
       <c r="C17">
         <f>B6*1.3</f>
-        <v>103284.35</v>
+        <v>115439.35</v>
       </c>
       <c r="D17">
         <f>B7*1.3</f>
-        <v>94134.95</v>
+        <v>106289.95</v>
       </c>
       <c r="E17">
         <f>B8</f>
